--- a/out_assembly_115/suspect_summary.xlsx
+++ b/out_assembly_115/suspect_summary.xlsx
@@ -35060,10 +35060,18 @@
         </is>
       </c>
       <c r="N524" t="n">
-        <v>0</v>
-      </c>
-      <c r="O524" t="inlineStr"/>
-      <c r="P524" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O524" t="inlineStr">
+        <is>
+          <t>INVALID_EPIC_ID</t>
+        </is>
+      </c>
+      <c r="P524" t="inlineStr">
+        <is>
+          <t>Serial number 523 was flagged due to rule: INVALID_EPIC_ID.</t>
+        </is>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
@@ -51856,10 +51864,18 @@
         </is>
       </c>
       <c r="N778" t="n">
-        <v>0</v>
-      </c>
-      <c r="O778" t="inlineStr"/>
-      <c r="P778" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O778" t="inlineStr">
+        <is>
+          <t>INVALID_EPIC_ID</t>
+        </is>
+      </c>
+      <c r="P778" t="inlineStr">
+        <is>
+          <t>Serial number 777 was flagged due to rule: INVALID_EPIC_ID.</t>
+        </is>
+      </c>
     </row>
     <row r="779">
       <c r="A779" t="n">
@@ -69286,10 +69302,18 @@
         </is>
       </c>
       <c r="N1041" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1041" t="inlineStr"/>
-      <c r="P1041" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1041" t="inlineStr">
+        <is>
+          <t>INVALID_EPIC_ID</t>
+        </is>
+      </c>
+      <c r="P1041" t="inlineStr">
+        <is>
+          <t>Serial number 1040 was flagged due to rule: INVALID_EPIC_ID.</t>
+        </is>
+      </c>
     </row>
     <row r="1042">
       <c r="A1042" t="n">
